--- a/Results/Book1 (per slice).xlsx
+++ b/Results/Book1 (per slice).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,33 +456,2043 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Offset Radial (mm)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>kVp</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Kernel</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Folder</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Manufacturer</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Channels</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>429</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_034.dcm</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>52.44690542363666</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_034.dcm</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>101</v>
+      </c>
+      <c r="C3" t="n">
+        <v>279</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_101.dcm</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>50.81877022025827</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_101.dcm</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>168</v>
+      </c>
+      <c r="C4" t="n">
+        <v>137</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_168.dcm</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>45.49111027066662</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_168.dcm</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>235</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_235.dcm</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>41.45333590087939</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_235.dcm</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>302</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_302.dcm</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>40.30304228762499</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_302.dcm</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>369</v>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_369.dcm</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>42.24645126149658</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_369.dcm</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>436</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_436.dcm</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>45.9148131584915</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_436.dcm</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>503</v>
+      </c>
+      <c r="C9" t="n">
+        <v>64</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_503.dcm</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>43.43488711782638</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_503.dcm</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>570</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_570.dcm</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>41.13083089324388</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_570.dcm</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>637</v>
+      </c>
+      <c r="C11" t="n">
+        <v>61</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Lung_637.dcm</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>40.83860746722161</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Br54d</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CT11_Lung</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Lung\Studie_001_CT11_Lung_637.dcm</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>436</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_006.dcm</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>52.20372835776251</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_006.dcm</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>290</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_017.dcm</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>51.17645780522879</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_017.dcm</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>144</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_028.dcm</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>46.00013701038959</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_028.dcm</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C15" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_040.dcm</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>41.48360459640636</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_040.dcm</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>60</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_051.dcm</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>40.2998346134751</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_051.dcm</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>62</v>
+      </c>
+      <c r="C17" t="n">
+        <v>59</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_062.dcm</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>42.18171375169646</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_062.dcm</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>73</v>
+      </c>
+      <c r="C18" t="n">
+        <v>62</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_073.dcm</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>45.92615611701172</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_073.dcm</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>84</v>
+      </c>
+      <c r="C19" t="n">
+        <v>64</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_084.dcm</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>43.60883087530814</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_084.dcm</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96</v>
+      </c>
+      <c r="C20" t="n">
+        <v>63</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_096.dcm</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>41.11542329241125</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_096.dcm</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>107</v>
+      </c>
+      <c r="C21" t="n">
+        <v>61</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Studie_001_CT11_Soft_107.dcm</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>40.86800422646056</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Br40d</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CT11_Soft</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT11_Soft\Studie_001_CT11_Soft_107.dcm</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>SOMATOM Force</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>80</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_025.dcm</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>14.63899180308307</v>
+      </c>
+      <c r="F22" t="n">
+        <v>120</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_025.dcm</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>73</v>
+      </c>
+      <c r="C23" t="n">
+        <v>68</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_073.dcm</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>8.805890301305565</v>
+      </c>
+      <c r="F23" t="n">
+        <v>120</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_073.dcm</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>121</v>
+      </c>
+      <c r="C24" t="n">
+        <v>46</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_121.dcm</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1.303940252541796</v>
+      </c>
+      <c r="F24" t="n">
+        <v>120</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_121.dcm</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>170</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_170.dcm</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3.14985118836533</v>
+      </c>
+      <c r="F25" t="n">
+        <v>120</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_170.dcm</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>218</v>
+      </c>
+      <c r="C26" t="n">
+        <v>27</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_218.dcm</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3.492277801755387</v>
+      </c>
+      <c r="F26" t="n">
+        <v>120</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_218.dcm</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>266</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_266.dcm</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2.615613450195557</v>
+      </c>
+      <c r="F27" t="n">
+        <v>120</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_266.dcm</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>314</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_314.dcm</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4.586027268690664</v>
+      </c>
+      <c r="F28" t="n">
+        <v>120</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_314.dcm</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>363</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_363.dcm</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7.387183039250005</v>
+      </c>
+      <c r="F29" t="n">
+        <v>120</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_363.dcm</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>411</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_411.dcm</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.045923025369968</v>
+      </c>
+      <c r="F30" t="n">
+        <v>120</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_411.dcm</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>459</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Lung_459.dcm</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6.004980825816785</v>
+      </c>
+      <c r="F31" t="n">
+        <v>120</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Bl56f</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>CT14_Lung</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Lung\Studie_001_CT14_Lung_459.dcm</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_006.dcm</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>15.49146422801811</v>
+      </c>
+      <c r="F32" t="n">
+        <v>120</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_006.dcm</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>17</v>
+      </c>
+      <c r="C33" t="n">
+        <v>69</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_017.dcm</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>9.848141675576755</v>
+      </c>
+      <c r="F33" t="n">
+        <v>120</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_017.dcm</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>48</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_028.dcm</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2.401266829864211</v>
+      </c>
+      <c r="F34" t="n">
+        <v>120</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_028.dcm</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>40</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_040.dcm</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.970125391906374</v>
+      </c>
+      <c r="F35" t="n">
+        <v>120</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_040.dcm</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>51</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_051.dcm</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3.726824945704958</v>
+      </c>
+      <c r="F36" t="n">
+        <v>120</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_051.dcm</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>62</v>
+      </c>
+      <c r="C37" t="n">
+        <v>24</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_062.dcm</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4.001369128787208</v>
+      </c>
+      <c r="F37" t="n">
+        <v>120</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_062.dcm</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>73</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_073.dcm</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5.300408569431723</v>
+      </c>
+      <c r="F38" t="n">
+        <v>120</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_073.dcm</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>84</v>
+      </c>
+      <c r="C39" t="n">
+        <v>28</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_084.dcm</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>7.23488520843888</v>
+      </c>
+      <c r="F39" t="n">
+        <v>120</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_084.dcm</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>96</v>
+      </c>
+      <c r="C40" t="n">
+        <v>29</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_096.dcm</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.06909404509965</v>
+      </c>
+      <c r="F40" t="n">
+        <v>120</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_096.dcm</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>107</v>
+      </c>
+      <c r="C41" t="n">
+        <v>29</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Studie_001_CT14_Soft_107.dcm</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>5.944630770164544</v>
+      </c>
+      <c r="F41" t="n">
+        <v>120</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Br40f</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>CT14_Soft</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>D:\Ani Nikoghosyan - CT11 vs CT14\Data\Studie_001\CT14_Soft\Studie_001_CT14_Soft_107.dcm</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Siemens Healthineers</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>NAEOTOM Alpha</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
